--- a/Data/01_batch/synergy/25619 - 1 - Raw Data_2.xlsx
+++ b/Data/01_batch/synergy/25619 - 1 - Raw Data_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="135" documentId="11_7CC4D869F2FBC3F19793CF86AC7B4778DFD724F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD690CD-1AE5-4D7F-9927-F67DDD4E5BA0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="1905" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,13 +406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -450,7 +450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.1052</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0.10680000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0.10730000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -655,7 +655,7 @@
         <v>0.11940000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.1038</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -801,7 +801,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -813,7 +813,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
